--- a/Machine Learning -1/Logistic Regression/LeadScoringCaseStudy/Lead Scoring Assignment/Leads Data Dictionary.xlsx
+++ b/Machine Learning -1/Logistic Regression/LeadScoringCaseStudy/Lead Scoring Assignment/Leads Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amit.chawla\Data Science\Machine Learning -1\Logistic Regression\LeadScoringCaseStudy\Lead Scoring Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26ACB1B-4ACE-4F1E-BDA9-222EBE7FEC5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37037CFE-392E-48AB-9A57-180E2AC7557F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{EB0EA90F-5D02-4555-A556-590372CD380C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB0EA90F-5D02-4555-A556-590372CD380C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,18 +681,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B9257A-60F9-4716-BB64-9F7B0F8B9298}">
   <dimension ref="A3:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
@@ -700,7 +700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -708,7 +708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -716,7 +716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -724,7 +724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -740,7 +740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -748,7 +748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -756,7 +756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -764,7 +764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -772,7 +772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -780,7 +780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -788,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -796,7 +796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -804,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
@@ -820,7 +820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -828,7 +828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -836,37 +836,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
@@ -874,7 +874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
@@ -882,7 +882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
@@ -890,7 +890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
@@ -906,7 +906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -914,7 +914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -922,7 +922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
@@ -930,7 +930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
@@ -938,25 +938,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
@@ -964,7 +964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>

--- a/Machine Learning -1/Logistic Regression/LeadScoringCaseStudy/Lead Scoring Assignment/Leads Data Dictionary.xlsx
+++ b/Machine Learning -1/Logistic Regression/LeadScoringCaseStudy/Lead Scoring Assignment/Leads Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amit.chawla\Data Science\Machine Learning -1\Logistic Regression\LeadScoringCaseStudy\Lead Scoring Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37037CFE-392E-48AB-9A57-180E2AC7557F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C40103-F728-4649-9E88-64DF3B818987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB0EA90F-5D02-4555-A556-590372CD380C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Last Notable Activity</t>
   </si>
@@ -42,18 +42,6 @@
     <t>I agree to pay the amount through cheque</t>
   </si>
   <si>
-    <t>Asymmetrique Profile Score</t>
-  </si>
-  <si>
-    <t>Asymmetrique Activity Score</t>
-  </si>
-  <si>
-    <t>Asymmetrique Profile Index</t>
-  </si>
-  <si>
-    <t>Asymmetrique Activity Index</t>
-  </si>
-  <si>
     <t>Lead Profile</t>
   </si>
   <si>
@@ -123,18 +111,9 @@
     <t>Lead Origin</t>
   </si>
   <si>
-    <t>Lead Number</t>
-  </si>
-  <si>
-    <t>Prospect ID</t>
-  </si>
-  <si>
     <t>The source of the lead. Includes Google, Organic Search, Olark Chat, etc.</t>
   </si>
   <si>
-    <t>A lead number assigned to each lead procured.</t>
-  </si>
-  <si>
     <t>Converted</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Indicates whether the customer is a student, umemployed or employed.</t>
   </si>
   <si>
-    <t>A unique ID with which the customer is identified.</t>
-  </si>
-  <si>
     <t>The origin identifier with which the customer was identified to be a lead. Includes API, Landing Page Submission, etc.</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
   </si>
   <si>
     <t>The city of the customer.</t>
-  </si>
-  <si>
-    <t>An index and score assigned to each customer based on their activity and their profile</t>
   </si>
   <si>
     <t>Indicates whether the customer has agreed to pay the amount through cheque or not.</t>
@@ -336,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,9 +318,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B9257A-60F9-4716-BB64-9F7B0F8B9298}">
-  <dimension ref="A3:C40"/>
+  <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,40 +663,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>32</v>
@@ -737,253 +707,210 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C34:C37"/>
+  <mergeCells count="1">
+    <mergeCell ref="C18:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
